--- a/medicine/Psychotrope/Alexander_(cocktail)/Alexander_(cocktail).xlsx
+++ b/medicine/Psychotrope/Alexander_(cocktail)/Alexander_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Alexander ou Alexandre est un cocktail utilisant un alcool fort (gin, cognac, bourbon...), de la Crème de cacao et de la crème liquide. Il se prépare au shaker et se sert dans un verre à cocktail refroidi, dans une coupe à champagne. La garniture est habituellement de la noix de muscade râpée.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe au minimum deux boissons du début du {{s[XX}} qui portent le nom d'Alexander, mais qui sont néanmoins des boissons différentes. Dans le « Jack's manual on the vintage and production, care and handling of wines, liquors » de Jacob Abraham Grohusko, le cocktail est décrit comme suit : trois mesures de whisky de seigle, une mesure de Bénédictine, avec un morceau de glace et un zeste d'orange[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe au minimum deux boissons du début du {{s[XX}} qui portent le nom d'Alexander, mais qui sont néanmoins des boissons différentes. Dans le « Jack's manual on the vintage and production, care and handling of wines, liquors » de Jacob Abraham Grohusko, le cocktail est décrit comme suit : trois mesures de whisky de seigle, une mesure de Bénédictine, avec un morceau de glace et un zeste d'orange.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Variante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Brandy Alexander remplace le gin par du brandy[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Brandy Alexander remplace le gin par du brandy.
 </t>
         </is>
       </c>
